--- a/test_import.xlsx
+++ b/test_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24720" windowHeight="10680"/>
+    <workbookView windowWidth="22110" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>题型</t>
+  </si>
+  <si>
+    <t>题干</t>
+  </si>
+  <si>
+    <t>题目描述</t>
+  </si>
+  <si>
+    <t>选项一</t>
+  </si>
+  <si>
+    <t>选项二</t>
+  </si>
+  <si>
+    <t>选项三</t>
+  </si>
+  <si>
+    <t>答案</t>
+  </si>
+  <si>
+    <t>题目解答</t>
+  </si>
+  <si>
+    <t>题目主题</t>
+  </si>
+  <si>
+    <t>关联知识点</t>
+  </si>
+  <si>
+    <t>考察能力点</t>
+  </si>
+  <si>
+    <t>题目难度评分</t>
+  </si>
   <si>
     <t>ch_to_en</t>
   </si>
@@ -58,7 +94,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,41 +114,74 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,28 +189,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,14 +202,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,33 +212,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,9 +232,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +246,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,187 +264,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +455,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -440,44 +478,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,17 +497,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,153 +520,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,13 +1066,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
@@ -1052,8 +1081,8 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54" spans="1:12">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="27" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1071,22 +1100,60 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="54" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1">
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1">
         <v>3</v>
       </c>
     </row>

--- a/test_import.xlsx
+++ b/test_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22110" windowHeight="10680"/>
+    <workbookView windowWidth="18300" windowHeight="8895"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
   <si>
     <t>题型</t>
   </si>
@@ -82,6 +82,78 @@
   </si>
   <si>
     <t>read,listen</t>
+  </si>
+  <si>
+    <t>b # 688811det.1561450247,688811symbol.1561450247</t>
+  </si>
+  <si>
+    <t>描述信息awerwerwaer</t>
+  </si>
+  <si>
+    <t>en_to_ch</t>
+  </si>
+  <si>
+    <t>abandon</t>
+  </si>
+  <si>
+    <t>abandon # 688811det.1561450247</t>
+  </si>
+  <si>
+    <t>base # 688811det.1561450247</t>
+  </si>
+  <si>
+    <t>integer # 688811det.1561450247</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>process # 688811det.1561450247</t>
+  </si>
+  <si>
+    <t>program # 688811det.1561450247</t>
+  </si>
+  <si>
+    <t>find # 688811det.1561450247</t>
+  </si>
+  <si>
+    <t>voice_to_ch</t>
+  </si>
+  <si>
+    <t>voice_sentence_fill</t>
+  </si>
+  <si>
+    <t>This # # pencil.</t>
+  </si>
+  <si>
+    <t>is;a</t>
+  </si>
+  <si>
+    <t>are;an</t>
+  </si>
+  <si>
+    <t>are;a</t>
+  </si>
+  <si>
+    <t>sentence_fill</t>
+  </si>
+  <si>
+    <t>word_read</t>
+  </si>
+  <si>
+    <t>alpha_read</t>
+  </si>
+  <si>
+    <t>sentence_read</t>
+  </si>
+  <si>
+    <t>This is a pencil.</t>
+  </si>
+  <si>
+    <t>voice_read</t>
+  </si>
+  <si>
+    <t>voice_spell</t>
   </si>
 </sst>
 </file>
@@ -118,8 +190,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -133,31 +220,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,24 +236,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,43 +312,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -247,9 +319,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,115 +336,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,67 +516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,9 +532,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,15 +595,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -523,11 +612,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,23 +622,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,149 +635,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -714,6 +786,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1066,15 +1141,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5583333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
     <col min="3" max="9" width="9" style="1"/>
     <col min="10" max="10" width="52" style="1" customWidth="1"/>
@@ -1147,13 +1222,395 @@
       <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="1:12">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="67.5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="67.5" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="1">
         <v>3</v>
       </c>
     </row>

--- a/test_import.xlsx
+++ b/test_import.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="48">
   <si>
     <t>题型</t>
   </si>
@@ -54,6 +54,9 @@
     <t>题目难度评分</t>
   </si>
   <si>
+    <t>音频文件链接</t>
+  </si>
+  <si>
     <t>ch_to_en</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
   </si>
   <si>
     <t>are;a</t>
+  </si>
+  <si>
+    <t>https://baidu.com</t>
   </si>
   <si>
     <t>sentence_fill</t>
@@ -183,6 +189,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -191,14 +205,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -207,14 +258,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +267,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,68 +302,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,22 +332,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -336,13 +342,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,55 +480,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,103 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,41 +533,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -595,6 +566,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -613,15 +628,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -635,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,34 +653,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -683,101 +692,98 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,6 +797,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1141,10 +1150,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1156,7 +1165,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:12">
+    <row r="1" ht="27" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1192,41 +1201,44 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" ht="54" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1">
         <v>3</v>
@@ -1234,37 +1246,37 @@
     </row>
     <row r="3" ht="54" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1">
         <v>3</v>
@@ -1272,37 +1284,37 @@
     </row>
     <row r="4" ht="67.5" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="1">
         <v>3</v>
@@ -1310,37 +1322,37 @@
     </row>
     <row r="5" ht="67.5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="1">
         <v>3</v>
@@ -1348,113 +1360,116 @@
     </row>
     <row r="6" ht="67.5" spans="1:12">
       <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="27" spans="1:12">
+    <row r="7" ht="40.5" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" s="1">
         <v>3</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:12">
       <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" s="1">
         <v>3</v>
@@ -1462,28 +1477,28 @@
     </row>
     <row r="9" ht="27" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" s="1">
         <v>3</v>
@@ -1491,95 +1506,98 @@
     </row>
     <row r="10" ht="27" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L10" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="11" ht="27" spans="1:12">
+    <row r="11" ht="40.5" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" s="1">
         <v>3</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L12" s="1">
         <v>3</v>
@@ -1587,34 +1605,38 @@
     </row>
     <row r="13" ht="27" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L13" s="1">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M11" r:id="rId1" display="https://baidu.com"/>
+    <hyperlink ref="M7" r:id="rId1" display="https://baidu.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
